--- a/Api.xlsx
+++ b/Api.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saz\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saz\OneDrive\Desktop\Project_ShopVision50\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95104919-157A-407C-A3EC-EFBDFC81B888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FEDFC6-9752-41F5-A25B-765EE1257098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{494D74A9-E5EC-4AB3-8F6C-7E898AE8C969}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>API Name</t>
   </si>
@@ -173,7 +173,10 @@
 }</t>
   </si>
   <si>
-    <t>Thêm nguiwof dùng mới vào danh sách</t>
+    <t>Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -645,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A69AB0-AF9A-4EFB-9B14-7CDD321C6AAE}">
   <dimension ref="G6:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="72" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="72" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="7:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="7:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>16</v>
@@ -793,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="7:14" ht="15.6" x14ac:dyDescent="0.3">
